--- a/Docs/ELFAPATOR108_params.xlsx
+++ b/Docs/ELFAPATOR108_params.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>Наименование</t>
   </si>
@@ -118,13 +118,22 @@
   </si>
   <si>
     <t>1/2/3/4 (2, 3 скорее всего)</t>
+  </si>
+  <si>
+    <t>Ошибка</t>
+  </si>
+  <si>
+    <t>*на данный момент, архивные читаются как текущие и доступны по тем же данным</t>
+  </si>
+  <si>
+    <t>см.Тек</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +194,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -212,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -227,6 +244,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -588,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -616,7 +634,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="11">
-        <v>42044</v>
+        <v>42023</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -625,7 +643,7 @@
       </c>
       <c r="F2" s="11">
         <f ca="1">TODAY()</f>
-        <v>42340</v>
+        <v>42388</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
@@ -720,18 +738,12 @@
     </row>
     <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D9" s="8">
         <v>4</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -791,115 +803,101 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="8">
+        <v>7</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="3" t="s">
+    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="8">
-        <v>2</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="8">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="8">
-        <v>4</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/ELFAPATOR108_params.xlsx
+++ b/Docs/ELFAPATOR108_params.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>Наименование</t>
   </si>
@@ -127,13 +127,25 @@
   </si>
   <si>
     <t>см.Тек</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>при работе по tcp/ip в MOXA serial settings, опция flow control должна быть none</t>
+  </si>
+  <si>
+    <t>ВАЖНО:</t>
+  </si>
+  <si>
+    <t>Настройки подключения</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +214,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -229,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -245,6 +266,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -312,6 +337,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>16750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>110947</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8074900" y="323850"/>
+          <a:ext cx="2888376" cy="3768547"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -606,30 +675,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7265625" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="29.7265625" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="5"/>
       <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -643,10 +715,10 @@
       </c>
       <c r="F2" s="11">
         <f ca="1">TODAY()</f>
-        <v>42388</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>42747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -656,7 +728,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -676,7 +748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -696,7 +768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -716,7 +788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -736,7 +808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -750,7 +822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -770,7 +842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>22</v>
@@ -786,7 +858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
@@ -803,7 +875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -823,7 +895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>29</v>
       </c>
@@ -835,7 +907,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -855,7 +927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>36</v>
       </c>
@@ -875,7 +947,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -883,7 +955,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -891,13 +963,26 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -912,7 +997,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -924,7 +1009,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs/ELFAPATOR108_params.xlsx
+++ b/Docs/ELFAPATOR108_params.xlsx
@@ -678,7 +678,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,7 +715,7 @@
       </c>
       <c r="F2" s="11">
         <f ca="1">TODAY()</f>
-        <v>42747</v>
+        <v>42937</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
